--- a/output/fit_clients/fit_round_134.xlsx
+++ b/output/fit_clients/fit_round_134.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1892567083.619809</v>
+        <v>2380751403.230989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1080547953675804</v>
+        <v>0.09105271560928464</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04243196749422734</v>
+        <v>0.03631027952082375</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>946283522.9609153</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2321888989.813942</v>
+        <v>2421449243.271667</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1614286637510365</v>
+        <v>0.1273003725153236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03814657735508634</v>
+        <v>0.04846579147860515</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1160944584.768383</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3303491737.724723</v>
+        <v>4189868918.020885</v>
       </c>
       <c r="F4" t="n">
-        <v>0.165077194961309</v>
+        <v>0.1504353140898202</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0234171580163053</v>
+        <v>0.03510750102923715</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>49</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1651745833.653476</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3178986633.811196</v>
+        <v>3619193571.526108</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1016781066627816</v>
+        <v>0.1046016637358265</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03250399191007219</v>
+        <v>0.04715589261707934</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1589493374.838475</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2301858282.752682</v>
+        <v>2864603243.448957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09662879607935097</v>
+        <v>0.1408348297063365</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05472205516127882</v>
+        <v>0.0483039476692417</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1150929138.254874</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2073366126.762875</v>
+        <v>2042921576.655648</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08382361545026994</v>
+        <v>0.06792877928949627</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03372599020323729</v>
+        <v>0.04621987093496546</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1036683117.440377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3764117535.254574</v>
+        <v>3738026053.141684</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2207791551228285</v>
+        <v>0.1486603521596557</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02303398519291618</v>
+        <v>0.02566482630102234</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>43</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1882058903.209316</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2300337072.929488</v>
+        <v>1757806005.538378</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1641443076334692</v>
+        <v>0.1926028014094986</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03583461616524145</v>
+        <v>0.03472308330758694</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1150168521.357329</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5172272077.975912</v>
+        <v>5410255559.483737</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1546227663241403</v>
+        <v>0.1913810146639319</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0387538439551174</v>
+        <v>0.03370949678217697</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>57</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2586136151.616051</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3482961367.651969</v>
+        <v>4133888656.844354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1157082547494357</v>
+        <v>0.1464068260082481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03372179680961812</v>
+        <v>0.04455617615301744</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1741480660.444461</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2724080551.006293</v>
+        <v>2868900607.85061</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1222606782688581</v>
+        <v>0.1218891671098872</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05288194404929402</v>
+        <v>0.05055534236536957</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1362040268.187218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5348826768.543636</v>
+        <v>3726030763.489809</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07452373877795224</v>
+        <v>0.09150854497549182</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03017015277831922</v>
+        <v>0.02423758876720557</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>45</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2674413370.638062</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3348399001.383461</v>
+        <v>2374136195.468831</v>
       </c>
       <c r="F14" t="n">
-        <v>0.117172590664311</v>
+        <v>0.1549005150573971</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04096903881072509</v>
+        <v>0.03141289135637558</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>43</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1674199509.854273</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1808764917.509858</v>
+        <v>1575376573.614928</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0864144003114623</v>
+        <v>0.07621376709732466</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03801043835581952</v>
+        <v>0.04960397637110038</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>904382614.2050037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1938506419.935526</v>
+        <v>2525741834.242216</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07565904204397013</v>
+        <v>0.08188378507529867</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03921868197945881</v>
+        <v>0.03901993026338345</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>969253290.9098568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5047033444.372049</v>
+        <v>4151457796.603534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.153460376755424</v>
+        <v>0.1250906559453882</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05014440119632015</v>
+        <v>0.05259568572171722</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>39</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2523516704.998394</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2768074042.160893</v>
+        <v>3140159466.042187</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1748730332047208</v>
+        <v>0.1415222915901836</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02135460706285763</v>
+        <v>0.02808274192027942</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1384037068.047573</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1063655258.885317</v>
+        <v>1315234920.45795</v>
       </c>
       <c r="F19" t="n">
-        <v>0.138118189147834</v>
+        <v>0.1608138886451763</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02542564671310799</v>
+        <v>0.01853556841684382</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>531827674.1627123</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2059837419.722016</v>
+        <v>1837124371.573162</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1190506717408558</v>
+        <v>0.1069972497200084</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02596395034154813</v>
+        <v>0.01988271458812159</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1029918729.768292</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2723249266.637811</v>
+        <v>2517494057.829659</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06822826066801208</v>
+        <v>0.08240838852852794</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03246275964658161</v>
+        <v>0.03698149086509254</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>13</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1361624600.058531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3353771478.450262</v>
+        <v>3285929510.085343</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09625210253349017</v>
+        <v>0.1088006046473776</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04716672080825401</v>
+        <v>0.0467179804377648</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>37</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1676885779.525039</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1031512621.586838</v>
+        <v>1456794523.591002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1463745935944046</v>
+        <v>0.1797277793898817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04468010601420488</v>
+        <v>0.04621425352682801</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>515756375.6263077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3874624412.279057</v>
+        <v>2619276310.494021</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1032305693381015</v>
+        <v>0.0991681606826036</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03204197450301385</v>
+        <v>0.03046493367281259</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>39</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1937312182.487755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1106207914.527475</v>
+        <v>1275573307.587395</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07406088238586611</v>
+        <v>0.09770442707469221</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02799034867055259</v>
+        <v>0.02878502145310137</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>553103996.7647891</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1351964713.896027</v>
+        <v>1272991181.655326</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1064996560037601</v>
+        <v>0.08014308957558039</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02701483955022522</v>
+        <v>0.03772196412535231</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>675982415.1192181</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3509851012.788023</v>
+        <v>4090583861.25461</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1577143908873715</v>
+        <v>0.1413887900274377</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02438778862669583</v>
+        <v>0.02411958081979556</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>32</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1754925540.843498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2566144623.151316</v>
+        <v>2349499077.210733</v>
       </c>
       <c r="F28" t="n">
-        <v>0.103552859705236</v>
+        <v>0.1028743489979345</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03916759917167823</v>
+        <v>0.04540089401078904</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>43</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1283072285.090787</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3826496224.490022</v>
+        <v>5110216703.698572</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09527187720934652</v>
+        <v>0.137850359673561</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04503588050321169</v>
+        <v>0.04593730637490251</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>62</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1913248141.05581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1542261728.989526</v>
+        <v>1520926255.392911</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1363349251411461</v>
+        <v>0.0983041077044267</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02859904037644284</v>
+        <v>0.02813391367844293</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>771130849.7643812</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1424594376.976082</v>
+        <v>1119412032.650297</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08678318858620368</v>
+        <v>0.09671457129347402</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03565247337575056</v>
+        <v>0.03873775759033806</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>712297087.0545533</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1812393659.38885</v>
+        <v>1405449470.117755</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08056540738758025</v>
+        <v>0.09011163428915731</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02915121476222426</v>
+        <v>0.03350596182297787</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>906196962.71418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2367704996.747429</v>
+        <v>2064654885.288367</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2019737147357722</v>
+        <v>0.1680502601135178</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04448994670112893</v>
+        <v>0.05922852326976876</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>40</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1183852547.812982</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1559956992.091756</v>
+        <v>946572447.7115382</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0972109906358264</v>
+        <v>0.07973581814713504</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02536219781891883</v>
+        <v>0.01758024585813494</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>779978441.9911307</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>840955497.8288405</v>
+        <v>978263086.4691129</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1073154137664763</v>
+        <v>0.1022641693332256</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02893312566150767</v>
+        <v>0.02737793902307979</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>420477802.3280765</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2531893108.528029</v>
+        <v>2582426592.738092</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1778357392046044</v>
+        <v>0.1686053001317193</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02767109764003238</v>
+        <v>0.02634519397697217</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1265946573.646344</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2939269788.472069</v>
+        <v>1769478331.667027</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1074612702973341</v>
+        <v>0.08650177136700013</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03526800592285156</v>
+        <v>0.03911299084745301</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>35</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1469635050.665408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2128645100.176589</v>
+        <v>2106456014.876909</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09251822712901955</v>
+        <v>0.07585456450561191</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0348432879297592</v>
+        <v>0.03524750891004508</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1064322510.497042</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2126823927.296545</v>
+        <v>2083205220.373833</v>
       </c>
       <c r="F39" t="n">
-        <v>0.183253584339272</v>
+        <v>0.1204253704611504</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02917967960913462</v>
+        <v>0.02663744001356593</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1063411938.871072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1181684212.509603</v>
+        <v>1165587692.621183</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1000288404097552</v>
+        <v>0.1139731389945762</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03912586867147069</v>
+        <v>0.0495422400273006</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>590842152.1007622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2317892382.67834</v>
+        <v>2920371562.907093</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1034223814711845</v>
+        <v>0.1371138662295747</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03382931585473836</v>
+        <v>0.0416972591523406</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>33</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1158946234.435983</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3260121007.993834</v>
+        <v>4320889279.124834</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08710937217649896</v>
+        <v>0.1077657617860117</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03515550780058103</v>
+        <v>0.03821374744956856</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1630060482.290275</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1948610940.715834</v>
+        <v>2102134375.937513</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1831090374719047</v>
+        <v>0.1796568674609853</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0183028320128683</v>
+        <v>0.02405327179812963</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>44</v>
-      </c>
-      <c r="J43" t="n">
-        <v>974305574.4317421</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1594855480.050741</v>
+        <v>1935347561.422457</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07827187673719867</v>
+        <v>0.09896880281504218</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03543812678651511</v>
+        <v>0.02750816703541171</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>797427765.4774297</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1749232472.545191</v>
+        <v>2324538788.302958</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1234575329289724</v>
+        <v>0.1906925635278555</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03688695277725322</v>
+        <v>0.05557419202265597</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>874616201.8165561</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4852219835.548173</v>
+        <v>4617315685.683622</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1105650239459715</v>
+        <v>0.1265467054950835</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04023748250137806</v>
+        <v>0.04917368904412595</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>48</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2426109936.044032</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4521121608.911111</v>
+        <v>3150597110.833796</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1548026039329402</v>
+        <v>0.1354420254874502</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04421962096083796</v>
+        <v>0.04273374612780426</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>36</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2260560833.063857</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3932468114.976205</v>
+        <v>4139285088.433341</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1019959194074234</v>
+        <v>0.07782193295325925</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03574417165658764</v>
+        <v>0.03239545992862185</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>44</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1966234095.724895</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1598299997.645105</v>
+        <v>1251234602.192907</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1917247002316211</v>
+        <v>0.1498295298760103</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03711737229159544</v>
+        <v>0.0287016959455287</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>799150015.5059006</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2897809690.012709</v>
+        <v>4213495704.932621</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1105415173770704</v>
+        <v>0.1507575495587136</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04322061969290421</v>
+        <v>0.05275468153832141</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>46</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1448904912.054293</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>954469173.1492881</v>
+        <v>1400615035.335778</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1686688440696222</v>
+        <v>0.164598577907497</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03887094985051184</v>
+        <v>0.036699582164302</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>477234677.8788936</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3674775980.978825</v>
+        <v>4681503160.241599</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09013509927582153</v>
+        <v>0.1211556992263602</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05744043340557131</v>
+        <v>0.05754981126613412</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>55</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1837388066.064272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2670879536.434829</v>
+        <v>3470692127.064362</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1504014809125051</v>
+        <v>0.1313054204003899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0294949889798719</v>
+        <v>0.02652233832016066</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>38</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1335439823.355727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3135462405.506436</v>
+        <v>3687055374.264885</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1306300729832634</v>
+        <v>0.1118385488558713</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03464933456382741</v>
+        <v>0.03540664244724012</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1567731198.905476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4579994070.269216</v>
+        <v>3782159710.645537</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2197192710147138</v>
+        <v>0.1406762614811373</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02957273070723201</v>
+        <v>0.03160031738302669</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>37</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2289997035.614377</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1420223900.289858</v>
+        <v>1635320055.802459</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1009805952379831</v>
+        <v>0.1348441474589241</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05138928807139011</v>
+        <v>0.04737016605472186</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>710112004.1743212</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4256194827.250856</v>
+        <v>3988757011.934783</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1607022168000138</v>
+        <v>0.1840835068895414</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01676966267690445</v>
+        <v>0.02015988195823263</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>43</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2128097523.455656</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1635265521.40164</v>
+        <v>1217562464.6395</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1710627485647047</v>
+        <v>0.2020439399926859</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0318799787357528</v>
+        <v>0.02969010937263254</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>817632779.4483434</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3442681156.14604</v>
+        <v>3624363983.016291</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1214432517955835</v>
+        <v>0.1204519216448894</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04483614095403141</v>
+        <v>0.04038126483464411</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>38</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1721340580.827025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3308342356.33537</v>
+        <v>3624516689.618456</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1780905336967096</v>
+        <v>0.1926496943790392</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0333951316991127</v>
+        <v>0.02601357200999998</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1654171280.806683</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3041270390.891259</v>
+        <v>3220975234.790637</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1358638909447443</v>
+        <v>0.131036927337783</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02440598728036218</v>
+        <v>0.02748509297534622</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>46</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1520635171.976108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2117790615.506112</v>
+        <v>1668962160.217779</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1673485477558291</v>
+        <v>0.1580408485853237</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03929414856814362</v>
+        <v>0.03510817725011782</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1058895383.464142</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4681197515.076769</v>
+        <v>3537961776.595088</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1062915797116309</v>
+        <v>0.07845772776537405</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04735441412915829</v>
+        <v>0.03119556525404872</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>39</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2340598789.499082</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4670127700.518351</v>
+        <v>3351034061.605582</v>
       </c>
       <c r="F64" t="n">
-        <v>0.181980428678968</v>
+        <v>0.18283510188766</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02668374463735276</v>
+        <v>0.02296977961656032</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>42</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2335063933.211501</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4639602664.392328</v>
+        <v>5463609808.693183</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1613984638309423</v>
+        <v>0.1702694491328829</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02368002384810702</v>
+        <v>0.03018655658457352</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>48</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2319801312.569024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4312984997.30273</v>
+        <v>5105999690.949866</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1289997601417832</v>
+        <v>0.1169534278055574</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04308349115581875</v>
+        <v>0.04734397478677768</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>39</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2156492488.931376</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2364579738.726323</v>
+        <v>2316241705.910231</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09380163300588767</v>
+        <v>0.06270995802499214</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04714423732191522</v>
+        <v>0.03967833927383913</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>43</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1182289941.408971</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5388349309.680063</v>
+        <v>5557916259.24849</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1042909068905376</v>
+        <v>0.1230966935537577</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0368318389536569</v>
+        <v>0.04768939139562341</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>43</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2694174734.714242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1671230378.567388</v>
+        <v>1747736306.626592</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1782477543722403</v>
+        <v>0.175866398300041</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03914572943487792</v>
+        <v>0.0437925787186612</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>835615151.6692588</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2727277082.244114</v>
+        <v>3458448179.613269</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07024267105235169</v>
+        <v>0.09851342064341197</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03992560187407535</v>
+        <v>0.03495386525488242</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1363638500.288794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4736855592.978632</v>
+        <v>4892900447.421735</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1238460732564002</v>
+        <v>0.1821834176136787</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02719515868261489</v>
+        <v>0.02806193691731713</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>49</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2368427882.486492</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2043688696.000384</v>
+        <v>1572275376.48522</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1055605016578628</v>
+        <v>0.07316472115492237</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05255773737134079</v>
+        <v>0.03686622656915201</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1021844287.274102</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2164846508.104606</v>
+        <v>2733344946.133368</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07408364563653302</v>
+        <v>0.103118192704644</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04202737391648519</v>
+        <v>0.05030667950710252</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>51</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1082423326.430016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2643077644.40532</v>
+        <v>2545927490.556488</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1271665320697182</v>
+        <v>0.1503856607305086</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03298437019980246</v>
+        <v>0.02918382369274161</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>46</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1321538918.41851</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2134607258.284228</v>
+        <v>2387697619.775664</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1030018904783736</v>
+        <v>0.1326710910639483</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03488846588468779</v>
+        <v>0.02319322439452187</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1067303580.630384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3823948396.946821</v>
+        <v>3869728441.697579</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08145480226965338</v>
+        <v>0.07614315937088834</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02204493215021964</v>
+        <v>0.03363247805454248</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>29</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1911974175.781696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1779454406.422921</v>
+        <v>1876570127.762829</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1836963691710097</v>
+        <v>0.1135741117032342</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01912818382505975</v>
+        <v>0.02685079105939936</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>889727232.0854214</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3753798253.558258</v>
+        <v>3616702319.599245</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1171742870384992</v>
+        <v>0.1223310830522103</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0466708483308586</v>
+        <v>0.03945548162213756</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>47</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1876899110.099865</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1306260077.610241</v>
+        <v>1847426253.123285</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1630082696451315</v>
+        <v>0.1402331927965259</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0392874258605838</v>
+        <v>0.03452339988302038</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>653130039.049299</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3998264201.082318</v>
+        <v>3580396516.556419</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06788034866362705</v>
+        <v>0.09413622547656145</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03021908989398287</v>
+        <v>0.03847820660021739</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1999132099.883065</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4865480983.245581</v>
+        <v>4722879271.138614</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1366715726023889</v>
+        <v>0.1297157299320514</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02479557068909601</v>
+        <v>0.03102095271815508</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2432740486.940559</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5431574210.277695</v>
+        <v>5152559069.978527</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1320569177164281</v>
+        <v>0.1504409035209608</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02165045674336328</v>
+        <v>0.02736763581592125</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>47</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2715787064.965659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1736434448.625696</v>
+        <v>2044112482.145602</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1314441439386325</v>
+        <v>0.1201312269272523</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03050366845784523</v>
+        <v>0.03592025927321241</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>868217176.8074949</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2380375662.500519</v>
+        <v>2541867751.356691</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08169106476745815</v>
+        <v>0.07754863829735027</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04129312359516966</v>
+        <v>0.03523951091271877</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1190187780.48816</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3582878363.445148</v>
+        <v>3308096736.657892</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1263199460708328</v>
+        <v>0.1586064329136006</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0555949214489696</v>
+        <v>0.04705888224132166</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>51</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1791439306.162504</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1792725618.927497</v>
+        <v>2397657673.77607</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1283658809005163</v>
+        <v>0.1199640617304469</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01918564133909502</v>
+        <v>0.02556837874743086</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>896362808.1933949</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>962565254.0646158</v>
+        <v>1355887155.784458</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1503439016746058</v>
+        <v>0.1175624688620076</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02980952565849499</v>
+        <v>0.0328837909941956</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>481282621.7052423</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2527451063.815935</v>
+        <v>2948547929.560528</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1618141400237337</v>
+        <v>0.1189493304715588</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03566327002355085</v>
+        <v>0.0337003438047122</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>53</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1263725515.611971</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2873409367.224351</v>
+        <v>3132121993.244972</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1137506693776035</v>
+        <v>0.141238198317006</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03454109707895522</v>
+        <v>0.03277548754423703</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>46</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1436704730.95371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1690928366.542615</v>
+        <v>1972523652.911737</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1215518766743364</v>
+        <v>0.09839155856312824</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05304215011113887</v>
+        <v>0.03502643615973004</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>845464196.9021218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1594486725.267765</v>
+        <v>1566036772.001596</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1951612419579805</v>
+        <v>0.1399812853123412</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04547326591867919</v>
+        <v>0.05883205811072947</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>797243388.9241275</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2131175118.262575</v>
+        <v>2873732926.479655</v>
       </c>
       <c r="F92" t="n">
-        <v>0.107749108370034</v>
+        <v>0.06802716248979497</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03548101204330065</v>
+        <v>0.04249581170822008</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>32</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1065587515.198922</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4543490082.040528</v>
+        <v>4829248657.126569</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1106281454911266</v>
+        <v>0.1179271565929574</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0424419387313574</v>
+        <v>0.05175700226361044</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2271745006.463688</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1836463936.763758</v>
+        <v>1900321994.571332</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1182683614072741</v>
+        <v>0.1642153447898888</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03348973417441169</v>
+        <v>0.0332758726575732</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>918231945.4575908</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2044571078.084704</v>
+        <v>2261546632.696088</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08671580596542652</v>
+        <v>0.09594687010924893</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04795911882571629</v>
+        <v>0.04382434021133933</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>32</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1022285608.200574</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1511610754.930774</v>
+        <v>2406403821.779846</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1040735928597788</v>
+        <v>0.1167165454767653</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04229649972975964</v>
+        <v>0.03401957014444579</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>755805416.5371789</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4027537450.220242</v>
+        <v>4502832817.248788</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1144749682153919</v>
+        <v>0.1371613634023461</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02449783628178396</v>
+        <v>0.01794049992492139</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2013768783.649249</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3811294757.390151</v>
+        <v>3475738186.470501</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1057025268804914</v>
+        <v>0.1130230069400134</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02199003018706343</v>
+        <v>0.02171808988747877</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>35</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1905647418.366763</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2993648835.963847</v>
+        <v>3430123523.575565</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09415620007013982</v>
+        <v>0.1198106043047002</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03276836465399901</v>
+        <v>0.02531272786251275</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>42</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1496824403.410144</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4485965249.884798</v>
+        <v>4436995708.576195</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1639659459742999</v>
+        <v>0.17538724985956</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02737927486740276</v>
+        <v>0.01748526907230784</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>41</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2242982734.366035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2390595812.086693</v>
+        <v>2331010842.222672</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2210537718305398</v>
+        <v>0.1758006816855009</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04087097068341532</v>
+        <v>0.04086378388370566</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>55</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1195297914.552725</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_134.xlsx
+++ b/output/fit_clients/fit_round_134.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2380751403.230989</v>
+        <v>1602356297.667823</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09105271560928464</v>
+        <v>0.07157739214101649</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03631027952082375</v>
+        <v>0.02894703346553496</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2421449243.271667</v>
+        <v>2321359045.28733</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1273003725153236</v>
+        <v>0.117116685249069</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04846579147860515</v>
+        <v>0.03916653337888621</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4189868918.020885</v>
+        <v>4344686179.662079</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1504353140898202</v>
+        <v>0.1171905035321403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03510750102923715</v>
+        <v>0.03692433697192592</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3619193571.526108</v>
+        <v>3853217236.552449</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1046016637358265</v>
+        <v>0.08648728331483531</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04715589261707934</v>
+        <v>0.03127312329139074</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2864603243.448957</v>
+        <v>2637867664.459146</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1408348297063365</v>
+        <v>0.09883573971360893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0483039476692417</v>
+        <v>0.05615710115370951</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2042921576.655648</v>
+        <v>2080146439.525177</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06792877928949627</v>
+        <v>0.07584913303902058</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04621987093496546</v>
+        <v>0.03424837677489168</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3738026053.141684</v>
+        <v>2817485559.773448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1486603521596557</v>
+        <v>0.2143869968089467</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02566482630102234</v>
+        <v>0.02097080699226178</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1757806005.538378</v>
+        <v>1491648379.493309</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1926028014094986</v>
+        <v>0.1545091681751602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03472308330758694</v>
+        <v>0.03510189833880157</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5410255559.483737</v>
+        <v>5351784238.639844</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1913810146639319</v>
+        <v>0.1611434212413588</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03370949678217697</v>
+        <v>0.0420415770646114</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4133888656.844354</v>
+        <v>2786377693.140379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1464068260082481</v>
+        <v>0.1862915989143897</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04455617615301744</v>
+        <v>0.03608527356412179</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2868900607.85061</v>
+        <v>2734660443.397824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1218891671098872</v>
+        <v>0.1521977139663011</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05055534236536957</v>
+        <v>0.04721978338685167</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3726030763.489809</v>
+        <v>3330284617.418423</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09150854497549182</v>
+        <v>0.1013879541263982</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02423758876720557</v>
+        <v>0.02644662183732498</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2374136195.468831</v>
+        <v>3301842682.492426</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1549005150573971</v>
+        <v>0.1820217608549634</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03141289135637558</v>
+        <v>0.02669676422843776</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1575376573.614928</v>
+        <v>1539030404.262294</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07621376709732466</v>
+        <v>0.06950797102899087</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04960397637110038</v>
+        <v>0.04222069060169584</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2525741834.242216</v>
+        <v>2445655186.836236</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08188378507529867</v>
+        <v>0.1137663216044731</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03901993026338345</v>
+        <v>0.03789644379288609</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4151457796.603534</v>
+        <v>4146463386.019516</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1250906559453882</v>
+        <v>0.1555160639672147</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05259568572171722</v>
+        <v>0.03827916413845117</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3140159466.042187</v>
+        <v>3094458152.740186</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1415222915901836</v>
+        <v>0.1362316267688883</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02808274192027942</v>
+        <v>0.02922141863432649</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1315234920.45795</v>
+        <v>1012335249.930032</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1608138886451763</v>
+        <v>0.1617520003475362</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01853556841684382</v>
+        <v>0.01684816468409133</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1837124371.573162</v>
+        <v>2418412790.84537</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1069972497200084</v>
+        <v>0.1191678871003208</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01988271458812159</v>
+        <v>0.02098092898754982</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2517494057.829659</v>
+        <v>2719147072.914508</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08240838852852794</v>
+        <v>0.0639285227229244</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03698149086509254</v>
+        <v>0.04349514719797149</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3285929510.085343</v>
+        <v>2573501668.430099</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1088006046473776</v>
+        <v>0.09667429298122335</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0467179804377648</v>
+        <v>0.04970964063292103</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1456794523.591002</v>
+        <v>950462732.7264019</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1797277793898817</v>
+        <v>0.1828801640024091</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04621425352682801</v>
+        <v>0.05216523567837271</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2619276310.494021</v>
+        <v>2737517247.107531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0991681606826036</v>
+        <v>0.1011873925474567</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03046493367281259</v>
+        <v>0.02824924652239845</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1275573307.587395</v>
+        <v>1342060612.771552</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09770442707469221</v>
+        <v>0.08741970695430684</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02878502145310137</v>
+        <v>0.02878385646106967</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1272991181.655326</v>
+        <v>1191120304.300456</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08014308957558039</v>
+        <v>0.08943380681528525</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03772196412535231</v>
+        <v>0.03030927587224099</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4090583861.25461</v>
+        <v>4426677977.219282</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1413887900274377</v>
+        <v>0.1020484005797824</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02411958081979556</v>
+        <v>0.02189676057585196</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2349499077.210733</v>
+        <v>3238268352.272825</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1028743489979345</v>
+        <v>0.1303885438408016</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04540089401078904</v>
+        <v>0.03226591289534387</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5110216703.698572</v>
+        <v>4823513262.64215</v>
       </c>
       <c r="F29" t="n">
-        <v>0.137850359673561</v>
+        <v>0.09631067792551561</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04593730637490251</v>
+        <v>0.04438203979092482</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1520926255.392911</v>
+        <v>2073737715.651648</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0983041077044267</v>
+        <v>0.1107570470196469</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02813391367844293</v>
+        <v>0.02903029684242675</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1119412032.650297</v>
+        <v>1047082261.872594</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09671457129347402</v>
+        <v>0.07519295789647114</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03873775759033806</v>
+        <v>0.0454966870527522</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1405449470.117755</v>
+        <v>1604644420.432949</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09011163428915731</v>
+        <v>0.09061402619139577</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03350596182297787</v>
+        <v>0.03696746545289786</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2064654885.288367</v>
+        <v>2477736712.681051</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1680502601135178</v>
+        <v>0.1486826785493432</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05922852326976876</v>
+        <v>0.04223543822622989</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>946572447.7115382</v>
+        <v>976586990.7393713</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07973581814713504</v>
+        <v>0.09825828521274466</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01758024585813494</v>
+        <v>0.02510446198522199</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>978263086.4691129</v>
+        <v>949578489.1736573</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1022641693332256</v>
+        <v>0.08810518600094679</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02737793902307979</v>
+        <v>0.04298381147882258</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2582426592.738092</v>
+        <v>1971990524.770877</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1686053001317193</v>
+        <v>0.1206947095182609</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02634519397697217</v>
+        <v>0.02343286783759731</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1769478331.667027</v>
+        <v>1907437327.96762</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08650177136700013</v>
+        <v>0.1113889023872758</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03911299084745301</v>
+        <v>0.03502530918079005</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2106456014.876909</v>
+        <v>2043568720.388112</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07585456450561191</v>
+        <v>0.08514135532955143</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03524750891004508</v>
+        <v>0.03607432266640511</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2083205220.373833</v>
+        <v>1946703095.771257</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1204253704611504</v>
+        <v>0.14550802220508</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02663744001356593</v>
+        <v>0.02930855531870049</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1165587692.621183</v>
+        <v>1653144176.43417</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1139731389945762</v>
+        <v>0.1318985943584448</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0495422400273006</v>
+        <v>0.05442056314822055</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2920371562.907093</v>
+        <v>2905847596.67544</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1371138662295747</v>
+        <v>0.1539520968735766</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0416972591523406</v>
+        <v>0.03389596980501581</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4320889279.124834</v>
+        <v>3474152438.771252</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1077657617860117</v>
+        <v>0.1257621099009493</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03821374744956856</v>
+        <v>0.03380808262557222</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2102134375.937513</v>
+        <v>1900836049.953819</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1796568674609853</v>
+        <v>0.1973960538523876</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02405327179812963</v>
+        <v>0.02323016247539301</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1935347561.422457</v>
+        <v>1528854072.354086</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09896880281504218</v>
+        <v>0.09684651258305772</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02750816703541171</v>
+        <v>0.03160562846492744</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2324538788.302958</v>
+        <v>2378298840.348267</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1906925635278555</v>
+        <v>0.1380960560867937</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05557419202265597</v>
+        <v>0.03687476085021869</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4617315685.683622</v>
+        <v>4537977675.893778</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1265467054950835</v>
+        <v>0.1329142719185333</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04917368904412595</v>
+        <v>0.05484929040314492</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3150597110.833796</v>
+        <v>3717680826.940651</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1354420254874502</v>
+        <v>0.1836861671170396</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04273374612780426</v>
+        <v>0.0553080552492426</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4139285088.433341</v>
+        <v>4283177201.341367</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07782193295325925</v>
+        <v>0.0876008239075113</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03239545992862185</v>
+        <v>0.03226999422505729</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1251234602.192907</v>
+        <v>1928002159.694777</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1498295298760103</v>
+        <v>0.1954257940248439</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0287016959455287</v>
+        <v>0.04196638598528107</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4213495704.932621</v>
+        <v>4076512780.193283</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1507575495587136</v>
+        <v>0.1394648621618914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05275468153832141</v>
+        <v>0.05176543444445794</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1400615035.335778</v>
+        <v>1443629379.827765</v>
       </c>
       <c r="F51" t="n">
-        <v>0.164598577907497</v>
+        <v>0.1207470446551171</v>
       </c>
       <c r="G51" t="n">
-        <v>0.036699582164302</v>
+        <v>0.04961125356327373</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4681503160.241599</v>
+        <v>4855382761.180863</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1211556992263602</v>
+        <v>0.1389310105894346</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05754981126613412</v>
+        <v>0.05208528444168028</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3470692127.064362</v>
+        <v>2377232803.924996</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1313054204003899</v>
+        <v>0.1575140848945573</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02652233832016066</v>
+        <v>0.03290088962921778</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3687055374.264885</v>
+        <v>3856766411.188987</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1118385488558713</v>
+        <v>0.1210584611344515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03540664244724012</v>
+        <v>0.04133577386493197</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3782159710.645537</v>
+        <v>3762416235.304295</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1406762614811373</v>
+        <v>0.1840295126622385</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03160031738302669</v>
+        <v>0.02508930728397614</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1635320055.802459</v>
+        <v>1326173014.874257</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1348441474589241</v>
+        <v>0.1103123387003232</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04737016605472186</v>
+        <v>0.04507278611727229</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3988757011.934783</v>
+        <v>2839624308.349456</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1840835068895414</v>
+        <v>0.1733835990178567</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02015988195823263</v>
+        <v>0.0211876280273383</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1217562464.6395</v>
+        <v>1325671212.470966</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2020439399926859</v>
+        <v>0.1652192140542988</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02969010937263254</v>
+        <v>0.03456231576259541</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3624363983.016291</v>
+        <v>3487006464.276242</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1204519216448894</v>
+        <v>0.1232181176467693</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04038126483464411</v>
+        <v>0.0492773239058957</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3624516689.618456</v>
+        <v>3417383263.276954</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1926496943790392</v>
+        <v>0.1808343220139804</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02601357200999998</v>
+        <v>0.02900886431845956</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3220975234.790637</v>
+        <v>3190877985.581544</v>
       </c>
       <c r="F61" t="n">
-        <v>0.131036927337783</v>
+        <v>0.159602349683417</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02748509297534622</v>
+        <v>0.02339649160116213</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1668962160.217779</v>
+        <v>1390159130.300097</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1580408485853237</v>
+        <v>0.1380832303537121</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03510817725011782</v>
+        <v>0.04180058599997952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3537961776.595088</v>
+        <v>5496765534.705051</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07845772776537405</v>
+        <v>0.1019403208663411</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03119556525404872</v>
+        <v>0.03033417490378521</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3351034061.605582</v>
+        <v>3367112459.007499</v>
       </c>
       <c r="F64" t="n">
-        <v>0.18283510188766</v>
+        <v>0.1779219353623409</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02296977961656032</v>
+        <v>0.03032042962381679</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5463609808.693183</v>
+        <v>4945572060.634133</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1702694491328829</v>
+        <v>0.1610281739216015</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03018655658457352</v>
+        <v>0.02007268524018398</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5105999690.949866</v>
+        <v>5360805233.285661</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1169534278055574</v>
+        <v>0.1418574531884705</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04734397478677768</v>
+        <v>0.04012291919855255</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2316241705.910231</v>
+        <v>2891449573.451931</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06270995802499214</v>
+        <v>0.06596208007472625</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03967833927383913</v>
+        <v>0.04384065696041006</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5557916259.24849</v>
+        <v>4078476591.149412</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1230966935537577</v>
+        <v>0.1542248314956531</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04768939139562341</v>
+        <v>0.04028864244261271</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1747736306.626592</v>
+        <v>2412655176.167473</v>
       </c>
       <c r="F69" t="n">
-        <v>0.175866398300041</v>
+        <v>0.1116235894456292</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0437925787186612</v>
+        <v>0.03929061326548788</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3458448179.613269</v>
+        <v>3369636231.464838</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09851342064341197</v>
+        <v>0.08019997166305565</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03495386525488242</v>
+        <v>0.03314548233144488</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4892900447.421735</v>
+        <v>5498790929.79565</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1821834176136787</v>
+        <v>0.1756761715949805</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02806193691731713</v>
+        <v>0.02074388214762047</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1572275376.48522</v>
+        <v>1599368139.013013</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07316472115492237</v>
+        <v>0.1022816972306102</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03686622656915201</v>
+        <v>0.03219595012539522</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2733344946.133368</v>
+        <v>3534078122.412541</v>
       </c>
       <c r="F73" t="n">
-        <v>0.103118192704644</v>
+        <v>0.07126034569143443</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05030667950710252</v>
+        <v>0.03989737931643514</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2545927490.556488</v>
+        <v>2782874963.65724</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1503856607305086</v>
+        <v>0.1382098638020684</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02918382369274161</v>
+        <v>0.03320687909540977</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2387697619.775664</v>
+        <v>1797699421.607513</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1326710910639483</v>
+        <v>0.1403439064133879</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02319322439452187</v>
+        <v>0.02734278845760913</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3869728441.697579</v>
+        <v>4254180743.006793</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07614315937088834</v>
+        <v>0.08366071080228533</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03363247805454248</v>
+        <v>0.02647696788339986</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1876570127.762829</v>
+        <v>2178098932.558266</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1135741117032342</v>
+        <v>0.1283496683277627</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02685079105939936</v>
+        <v>0.01944858002971718</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3616702319.599245</v>
+        <v>3361198133.120855</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1223310830522103</v>
+        <v>0.1294003453717458</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03945548162213756</v>
+        <v>0.03692026972811396</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1847426253.123285</v>
+        <v>1170340457.983244</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1402331927965259</v>
+        <v>0.1749953646875789</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03452339988302038</v>
+        <v>0.03453566068638703</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3580396516.556419</v>
+        <v>4758125681.447955</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09413622547656145</v>
+        <v>0.08445800754024768</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03847820660021739</v>
+        <v>0.0300865282928995</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4722879271.138614</v>
+        <v>4045024801.28863</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1297157299320514</v>
+        <v>0.1262387638347331</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03102095271815508</v>
+        <v>0.03100808532678767</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5152559069.978527</v>
+        <v>5477557863.924858</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1504409035209608</v>
+        <v>0.2097013508491639</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02736763581592125</v>
+        <v>0.02094199731278262</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2044112482.145602</v>
+        <v>2346785605.385748</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1201312269272523</v>
+        <v>0.1107078709828137</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03592025927321241</v>
+        <v>0.03268938302128161</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2541867751.356691</v>
+        <v>2377717111.780893</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07754863829735027</v>
+        <v>0.08652599383669089</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03523951091271877</v>
+        <v>0.03547547391400679</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3308096736.657892</v>
+        <v>2372629324.775564</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1586064329136006</v>
+        <v>0.1524681424134192</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04705888224132166</v>
+        <v>0.04036603762561994</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2397657673.77607</v>
+        <v>1873668841.388707</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1199640617304469</v>
+        <v>0.1349994994485124</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02556837874743086</v>
+        <v>0.01762445688228184</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1355887155.784458</v>
+        <v>1416364953.968235</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1175624688620076</v>
+        <v>0.1382928114280495</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0328837909941956</v>
+        <v>0.04101998244715232</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2948547929.560528</v>
+        <v>3133466473.377205</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1189493304715588</v>
+        <v>0.1206234654276257</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0337003438047122</v>
+        <v>0.03279185022975339</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3132121993.244972</v>
+        <v>3383828825.611835</v>
       </c>
       <c r="F89" t="n">
-        <v>0.141238198317006</v>
+        <v>0.1168694554192611</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03277548754423703</v>
+        <v>0.02916086213913876</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1972523652.911737</v>
+        <v>1567147989.099888</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09839155856312824</v>
+        <v>0.08563972785458054</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03502643615973004</v>
+        <v>0.047145639040588</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1566036772.001596</v>
+        <v>1692168212.151392</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1399812853123412</v>
+        <v>0.1671321079285717</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05883205811072947</v>
+        <v>0.05355554305096935</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2873732926.479655</v>
+        <v>2237600761.394114</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06802716248979497</v>
+        <v>0.08793348219125649</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04249581170822008</v>
+        <v>0.04242948961965103</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4829248657.126569</v>
+        <v>4360154304.475303</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1179271565929574</v>
+        <v>0.1274399408533066</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05175700226361044</v>
+        <v>0.04249807909341653</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1900321994.571332</v>
+        <v>2428969428.579295</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1642153447898888</v>
+        <v>0.1114515697068948</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0332758726575732</v>
+        <v>0.02961616083503152</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2261546632.696088</v>
+        <v>2407300259.519062</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09594687010924893</v>
+        <v>0.1201234972326637</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04382434021133933</v>
+        <v>0.04217106128898272</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2406403821.779846</v>
+        <v>2352716833.272898</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1167165454767653</v>
+        <v>0.1291504402010067</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03401957014444579</v>
+        <v>0.04600753412192433</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4502832817.248788</v>
+        <v>4976292363.516089</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1371613634023461</v>
+        <v>0.1578807573227813</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01794049992492139</v>
+        <v>0.0195540974735737</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3475738186.470501</v>
+        <v>3160910679.981593</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1130230069400134</v>
+        <v>0.1210296862330144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02171808988747877</v>
+        <v>0.03060464385172897</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3430123523.575565</v>
+        <v>2982916752.77329</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1198106043047002</v>
+        <v>0.1016979805423059</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02531272786251275</v>
+        <v>0.03068915052883592</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4436995708.576195</v>
+        <v>3968314781.313791</v>
       </c>
       <c r="F100" t="n">
-        <v>0.17538724985956</v>
+        <v>0.1534100257680526</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01748526907230784</v>
+        <v>0.0174686290574081</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2331010842.222672</v>
+        <v>2817785775.025211</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1758006816855009</v>
+        <v>0.1541999932939196</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04086378388370566</v>
+        <v>0.05356234554470674</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_134.xlsx
+++ b/output/fit_clients/fit_round_134.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1602356297.667823</v>
+        <v>2221765292.49605</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07157739214101649</v>
+        <v>0.1074029213611728</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02894703346553496</v>
+        <v>0.04344138781169501</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2321359045.28733</v>
+        <v>2302223885.394525</v>
       </c>
       <c r="F3" t="n">
-        <v>0.117116685249069</v>
+        <v>0.1325334710527747</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03916653337888621</v>
+        <v>0.04603898958891559</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4344686179.662079</v>
+        <v>3465606453.933781</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1171905035321403</v>
+        <v>0.1473475122846846</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03692433697192592</v>
+        <v>0.02562917389319595</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>78</v>
+      </c>
+      <c r="J4" t="n">
+        <v>133</v>
+      </c>
+      <c r="K4" t="n">
+        <v>119.3380640682689</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3853217236.552449</v>
+        <v>2922421504.840393</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08648728331483531</v>
+        <v>0.10139080468633</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03127312329139074</v>
+        <v>0.03278951120315626</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>132</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2637867664.459146</v>
+        <v>2365107937.617651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09883573971360893</v>
+        <v>0.1074024273444471</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05615710115370951</v>
+        <v>0.04059907865307288</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2080146439.525177</v>
+        <v>1997691848.369498</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07584913303902058</v>
+        <v>0.09607362748946478</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03424837677489168</v>
+        <v>0.04898956519981312</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2817485559.773448</v>
+        <v>2623541185.153337</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2143869968089467</v>
+        <v>0.1561787197835584</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02097080699226178</v>
+        <v>0.02693381720487251</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="n">
+        <v>133</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69.22188837533578</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1491648379.493309</v>
+        <v>1762915212.250052</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1545091681751602</v>
+        <v>0.1473817071715527</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03510189833880157</v>
+        <v>0.02885533053919359</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5351784238.639844</v>
+        <v>3792446944.257218</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1611434212413588</v>
+        <v>0.1616985098243122</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0420415770646114</v>
+        <v>0.04757769275519906</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>122</v>
+      </c>
+      <c r="J10" t="n">
+        <v>134</v>
+      </c>
+      <c r="K10" t="n">
+        <v>159.3625443235044</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +822,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2786377693.140379</v>
+        <v>3920775290.371518</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1862915989143897</v>
+        <v>0.1264914468358189</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03608527356412179</v>
+        <v>0.04533732309924093</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>134</v>
+      </c>
+      <c r="K11" t="n">
+        <v>156.9491761395371</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2734660443.397824</v>
+        <v>3212823908.624558</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1521977139663011</v>
+        <v>0.1745306677743383</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04721978338685167</v>
+        <v>0.04610746997730478</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3330284617.418423</v>
+        <v>5228265089.624231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1013879541263982</v>
+        <v>0.06749722387598148</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02644662183732498</v>
+        <v>0.02695678225489007</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>65</v>
+      </c>
+      <c r="J13" t="n">
+        <v>134</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3301842682.492426</v>
+        <v>2604685758.296982</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1820217608549634</v>
+        <v>0.1282373465457836</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02669676422843776</v>
+        <v>0.0361767477166307</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>132</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1539030404.262294</v>
+        <v>1714057112.781111</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06950797102899087</v>
+        <v>0.07115978327562247</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04222069060169584</v>
+        <v>0.04197748192943893</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2445655186.836236</v>
+        <v>2570309495.04198</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1137663216044731</v>
+        <v>0.08529474385683342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03789644379288609</v>
+        <v>0.03865804515570355</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4146463386.019516</v>
+        <v>3974881535.465529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1555160639672147</v>
+        <v>0.116068552306686</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03827916413845117</v>
+        <v>0.05131199944894178</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>64</v>
+      </c>
+      <c r="J17" t="n">
+        <v>134</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3094458152.740186</v>
+        <v>2438848047.550436</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1362316267688883</v>
+        <v>0.1130582893528246</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02922141863432649</v>
+        <v>0.02685545393178589</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>130</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1012335249.930032</v>
+        <v>1210682423.4183</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1617520003475362</v>
+        <v>0.1757837042764404</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01684816468409133</v>
+        <v>0.02077227954419718</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2418412790.84537</v>
+        <v>1903954853.199218</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1191678871003208</v>
+        <v>0.1606436397568363</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02098092898754982</v>
+        <v>0.02718466037980248</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2719147072.914508</v>
+        <v>2632046528.339505</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0639285227229244</v>
+        <v>0.06615613896271035</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04349514719797149</v>
+        <v>0.04195060773294818</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2573501668.430099</v>
+        <v>2724885715.550625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09667429298122335</v>
+        <v>0.144150924960205</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04970964063292103</v>
+        <v>0.03629375259139107</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>34</v>
+      </c>
+      <c r="J22" t="n">
+        <v>132</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>950462732.7264019</v>
+        <v>1207554842.20069</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1828801640024091</v>
+        <v>0.1633580448116893</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05216523567837271</v>
+        <v>0.03618490738592344</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2737517247.107531</v>
+        <v>3705654108.504301</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1011873925474567</v>
+        <v>0.1449940088506689</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02824924652239845</v>
+        <v>0.02733367182685568</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>38</v>
+      </c>
+      <c r="J24" t="n">
+        <v>134</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1342060612.771552</v>
+        <v>1156945030.259459</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08741970695430684</v>
+        <v>0.1081992226544214</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02878385646106967</v>
+        <v>0.01999380168414648</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1191120304.300456</v>
+        <v>1454289893.490884</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08943380681528525</v>
+        <v>0.1236199435008126</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03030927587224099</v>
+        <v>0.03094347446327635</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4426677977.219282</v>
+        <v>3265695996.565009</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1020484005797824</v>
+        <v>0.100558954450135</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02189676057585196</v>
+        <v>0.02131757302028676</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>53</v>
+      </c>
+      <c r="J27" t="n">
+        <v>133</v>
+      </c>
+      <c r="K27" t="n">
+        <v>90.29170816685394</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3238268352.272825</v>
+        <v>3046740119.401018</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1303885438408016</v>
+        <v>0.1074642304384991</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03226591289534387</v>
+        <v>0.03180070650028522</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>130</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4823513262.64215</v>
+        <v>3796185094.758401</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09631067792551561</v>
+        <v>0.1355575354520729</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04438203979092482</v>
+        <v>0.03239466126558091</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>124</v>
+      </c>
+      <c r="J29" t="n">
+        <v>134</v>
+      </c>
+      <c r="K29" t="n">
+        <v>171.4150238818862</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2073737715.651648</v>
+        <v>1530080399.717357</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1107570470196469</v>
+        <v>0.1203352439198873</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02903029684242675</v>
+        <v>0.02447719586305871</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1047082261.872594</v>
+        <v>914001041.5559037</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07519295789647114</v>
+        <v>0.1033278451201491</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0454966870527522</v>
+        <v>0.04913744271377542</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1604644420.432949</v>
+        <v>1625307461.687308</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09061402619139577</v>
+        <v>0.1016294655020448</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03696746545289786</v>
+        <v>0.03551298840777534</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2477736712.681051</v>
+        <v>1911312820.416008</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1486826785493432</v>
+        <v>0.1298214907145783</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04223543822622989</v>
+        <v>0.04261223986634541</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>976586990.7393713</v>
+        <v>1098100810.474036</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09825828521274466</v>
+        <v>0.12128232377619</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02510446198522199</v>
+        <v>0.01784082887540088</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>949578489.1736573</v>
+        <v>827240760.330487</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08810518600094679</v>
+        <v>0.07409759853964339</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04298381147882258</v>
+        <v>0.03699074200303274</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1971990524.770877</v>
+        <v>2793937393.86372</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1206947095182609</v>
+        <v>0.1203476329486037</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02343286783759731</v>
+        <v>0.02643383833766927</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1907437327.96762</v>
+        <v>1811132409.555783</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1113889023872758</v>
+        <v>0.07660575395243124</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03502530918079005</v>
+        <v>0.03318368739500025</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2043568720.388112</v>
+        <v>2038632996.252347</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08514135532955143</v>
+        <v>0.1018959459214717</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03607432266640511</v>
+        <v>0.03887432303011818</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1946703095.771257</v>
+        <v>1446630728.795565</v>
       </c>
       <c r="F39" t="n">
-        <v>0.14550802220508</v>
+        <v>0.16872001330568</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02930855531870049</v>
+        <v>0.0216574102257838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1653144176.43417</v>
+        <v>1126969227.209897</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1318985943584448</v>
+        <v>0.138318763729648</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05442056314822055</v>
+        <v>0.05135021911434466</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2905847596.67544</v>
+        <v>2304526009.505223</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1539520968735766</v>
+        <v>0.1624124130921543</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03389596980501581</v>
+        <v>0.04729496808091976</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3474152438.771252</v>
+        <v>3545590329.19084</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1257621099009493</v>
+        <v>0.1209846939275582</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03380808262557222</v>
+        <v>0.03695667035629943</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>50</v>
+      </c>
+      <c r="J42" t="n">
+        <v>133</v>
+      </c>
+      <c r="K42" t="n">
+        <v>130.8387508523652</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1900836049.953819</v>
+        <v>2582961902.836078</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1973960538523876</v>
+        <v>0.1731910241777054</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02323016247539301</v>
+        <v>0.01580790445685672</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1528854072.354086</v>
+        <v>2211500419.097322</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09684651258305772</v>
+        <v>0.08758064935633487</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03160562846492744</v>
+        <v>0.03485350800457852</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2378298840.348267</v>
+        <v>1561038425.462674</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1380960560867937</v>
+        <v>0.1766772173474924</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03687476085021869</v>
+        <v>0.04016436019779652</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4537977675.893778</v>
+        <v>4682749939.899876</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1329142719185333</v>
+        <v>0.1538468396808901</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05484929040314492</v>
+        <v>0.04322572420998872</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>76</v>
+      </c>
+      <c r="J46" t="n">
+        <v>134</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3717680826.940651</v>
+        <v>4844930895.705782</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1836861671170396</v>
+        <v>0.1479392812755625</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0553080552492426</v>
+        <v>0.05020334950402711</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>59</v>
+      </c>
+      <c r="J47" t="n">
+        <v>134</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4283177201.341367</v>
+        <v>4136442991.995418</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0876008239075113</v>
+        <v>0.09892698262055379</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03226999422505729</v>
+        <v>0.02695850048205474</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>54</v>
+      </c>
+      <c r="J48" t="n">
+        <v>134</v>
+      </c>
+      <c r="K48" t="n">
+        <v>147.7703118201736</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1928002159.694777</v>
+        <v>1606314902.592748</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1954257940248439</v>
+        <v>0.1539360246176438</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04196638598528107</v>
+        <v>0.03223102379657996</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4076512780.193283</v>
+        <v>3409902070.581499</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1394648621618914</v>
+        <v>0.1354043552034978</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05176543444445794</v>
+        <v>0.04337406412433664</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>131</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1443629379.827765</v>
+        <v>1334872013.281303</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1207470446551171</v>
+        <v>0.1660145889601284</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04961125356327373</v>
+        <v>0.05393432601378525</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4855382761.180863</v>
+        <v>5111044947.548745</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1389310105894346</v>
+        <v>0.09438444237763506</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05208528444168028</v>
+        <v>0.05697903101290893</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>101</v>
+      </c>
+      <c r="J52" t="n">
+        <v>133</v>
+      </c>
+      <c r="K52" t="n">
+        <v>147.1018566160353</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2377232803.924996</v>
+        <v>2854461431.183594</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1575140848945573</v>
+        <v>0.1747450350435417</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03290088962921778</v>
+        <v>0.02969264160112126</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>129</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3856766411.188987</v>
+        <v>4902647030.983288</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1210584611344515</v>
+        <v>0.1616998894233875</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04133577386493197</v>
+        <v>0.0381269395399256</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>60</v>
+      </c>
+      <c r="J54" t="n">
+        <v>134</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3762416235.304295</v>
+        <v>3491767389.616177</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1840295126622385</v>
+        <v>0.1760301853885699</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02508930728397614</v>
+        <v>0.03011715691710929</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>61</v>
+      </c>
+      <c r="J55" t="n">
+        <v>134</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1326173014.874257</v>
+        <v>1386695342.477977</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1103123387003232</v>
+        <v>0.1553295798493683</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04507278611727229</v>
+        <v>0.04608420577665027</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2839624308.349456</v>
+        <v>4120434583.648982</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1733835990178567</v>
+        <v>0.1164595057327898</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0211876280273383</v>
+        <v>0.02414817176760714</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>53</v>
+      </c>
+      <c r="J57" t="n">
+        <v>134</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1325671212.470966</v>
+        <v>1177072417.329517</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1652192140542988</v>
+        <v>0.1672646884565633</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03456231576259541</v>
+        <v>0.03224205321688111</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3487006464.276242</v>
+        <v>5154951217.346524</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1232181176467693</v>
+        <v>0.10732754835383</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0492773239058957</v>
+        <v>0.04442570895352525</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>65</v>
+      </c>
+      <c r="J59" t="n">
+        <v>133</v>
+      </c>
+      <c r="K59" t="n">
+        <v>135.7828543009743</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3417383263.276954</v>
+        <v>2364751633.149522</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1808343220139804</v>
+        <v>0.185084713046322</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02900886431845956</v>
+        <v>0.02498016499212216</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>21</v>
+      </c>
+      <c r="J60" t="n">
+        <v>130</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3190877985.581544</v>
+        <v>2176091912.251042</v>
       </c>
       <c r="F61" t="n">
-        <v>0.159602349683417</v>
+        <v>0.1694906884392225</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02339649160116213</v>
+        <v>0.02725005505134326</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1390159130.300097</v>
+        <v>1635343967.323278</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1380832303537121</v>
+        <v>0.159829608096934</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04180058599997952</v>
+        <v>0.0484621109441573</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5496765534.705051</v>
+        <v>4522557438.960278</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1019403208663411</v>
+        <v>0.1000468495280927</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03033417490378521</v>
+        <v>0.03488791912873281</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>66</v>
+      </c>
+      <c r="J63" t="n">
+        <v>133</v>
+      </c>
+      <c r="K63" t="n">
+        <v>131.9390340493582</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3367112459.007499</v>
+        <v>3535949273.029522</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1779219353623409</v>
+        <v>0.1858974553280282</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03032042962381679</v>
+        <v>0.0271623804895074</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>66</v>
+      </c>
+      <c r="J64" t="n">
+        <v>134</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4945572060.634133</v>
+        <v>4169840790.842543</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1610281739216015</v>
+        <v>0.1081399540083116</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02007268524018398</v>
+        <v>0.02520807767021406</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>111</v>
+      </c>
+      <c r="J65" t="n">
+        <v>134</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5360805233.285661</v>
+        <v>4413544063.190495</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1418574531884705</v>
+        <v>0.09870284959363745</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04012291919855255</v>
+        <v>0.03700061627253709</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>66</v>
+      </c>
+      <c r="J66" t="n">
+        <v>133</v>
+      </c>
+      <c r="K66" t="n">
+        <v>133.5938372819741</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2891449573.451931</v>
+        <v>2469837897.440336</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06596208007472625</v>
+        <v>0.07286048076835464</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04384065696041006</v>
+        <v>0.04629906228431013</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4078476591.149412</v>
+        <v>4656060725.887976</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1542248314956531</v>
+        <v>0.0979685136329814</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04028864244261271</v>
+        <v>0.03320850841691318</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>67</v>
+      </c>
+      <c r="J68" t="n">
+        <v>134</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2412655176.167473</v>
+        <v>2019499944.511333</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1116235894456292</v>
+        <v>0.1697149807267584</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03929061326548788</v>
+        <v>0.05299139468482309</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3369636231.464838</v>
+        <v>3002089838.690703</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08019997166305565</v>
+        <v>0.07124127027921971</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03314548233144488</v>
+        <v>0.03453974312368181</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>132</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5498790929.79565</v>
+        <v>4982822751.099481</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1756761715949805</v>
+        <v>0.1342940341584476</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02074388214762047</v>
+        <v>0.02332836636755296</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>108</v>
+      </c>
+      <c r="J71" t="n">
+        <v>133</v>
+      </c>
+      <c r="K71" t="n">
+        <v>146.9700704381025</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1599368139.013013</v>
+        <v>1602737188.99363</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1022816972306102</v>
+        <v>0.09459213282190553</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03219595012539522</v>
+        <v>0.04306232725552243</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3534078122.412541</v>
+        <v>3456638597.954062</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07126034569143443</v>
+        <v>0.1112207065332349</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03989737931643514</v>
+        <v>0.05155089154493563</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3041,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2782874963.65724</v>
+        <v>3650832500.008273</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1382098638020684</v>
+        <v>0.1826821999019835</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03320687909540977</v>
+        <v>0.02654996787929003</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>43</v>
+      </c>
+      <c r="J74" t="n">
+        <v>134</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1797699421.607513</v>
+        <v>1507375065.067004</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1403439064133879</v>
+        <v>0.1160700755006278</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02734278845760913</v>
+        <v>0.02431115046896691</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4254180743.006793</v>
+        <v>4904049904.532401</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08366071080228533</v>
+        <v>0.08656952149309063</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02647696788339986</v>
+        <v>0.03223918629707211</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>62</v>
+      </c>
+      <c r="J76" t="n">
+        <v>133</v>
+      </c>
+      <c r="K76" t="n">
+        <v>117.7661033960293</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2178098932.558266</v>
+        <v>1622889049.475952</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1283496683277627</v>
+        <v>0.1440783877297933</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01944858002971718</v>
+        <v>0.02076386916989419</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3361198133.120855</v>
+        <v>2911602945.376398</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1294003453717458</v>
+        <v>0.09935243523379557</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03692026972811396</v>
+        <v>0.05702806572914654</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>66</v>
+      </c>
+      <c r="J78" t="n">
+        <v>132</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3224,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1170340457.983244</v>
+        <v>1431506018.921558</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1749953646875789</v>
+        <v>0.158135551891337</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03453566068638703</v>
+        <v>0.03050692205788219</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3259,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4758125681.447955</v>
+        <v>3748991298.785278</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08445800754024768</v>
+        <v>0.09586248347228524</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0300865282928995</v>
+        <v>0.02721679890173512</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>65</v>
+      </c>
+      <c r="J80" t="n">
+        <v>133</v>
+      </c>
+      <c r="K80" t="n">
+        <v>104.9206248654158</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4045024801.28863</v>
+        <v>3623875229.790393</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1262387638347331</v>
+        <v>0.1258161915939707</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03100808532678767</v>
+        <v>0.03177942120382675</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>61</v>
+      </c>
+      <c r="J81" t="n">
+        <v>133</v>
+      </c>
+      <c r="K81" t="n">
+        <v>113.992982133037</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5477557863.924858</v>
+        <v>5180365619.340999</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2097013508491639</v>
+        <v>0.2163423088212787</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02094199731278262</v>
+        <v>0.01940550200470995</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>95</v>
+      </c>
+      <c r="J82" t="n">
+        <v>134</v>
+      </c>
+      <c r="K82" t="n">
+        <v>154.6292389540625</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2346785605.385748</v>
+        <v>1694607289.969802</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1107078709828137</v>
+        <v>0.1218660288809669</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03268938302128161</v>
+        <v>0.0408486018849136</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2377717111.780893</v>
+        <v>1804652948.676813</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08652599383669089</v>
+        <v>0.09074972416971447</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03547547391400679</v>
+        <v>0.03576918169263179</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2372629324.775564</v>
+        <v>2817270028.490486</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1524681424134192</v>
+        <v>0.1592410380818137</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04036603762561994</v>
+        <v>0.04081789531363471</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>21</v>
+      </c>
+      <c r="J85" t="n">
+        <v>133</v>
+      </c>
+      <c r="K85" t="n">
+        <v>85.71345334675338</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1873668841.388707</v>
+        <v>2782913857.386879</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1349994994485124</v>
+        <v>0.1411266317909956</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01762445688228184</v>
+        <v>0.01918438476942668</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1416364953.968235</v>
+        <v>1103497331.949696</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1382928114280495</v>
+        <v>0.1390136688524624</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04101998244715232</v>
+        <v>0.04247670092571884</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3133466473.377205</v>
+        <v>3548588369.024362</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1206234654276257</v>
+        <v>0.1159461554951304</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03279185022975339</v>
+        <v>0.02993302092031066</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>134</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3383828825.611835</v>
+        <v>3190248904.862915</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1168694554192611</v>
+        <v>0.1272139448077123</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02916086213913876</v>
+        <v>0.02566348978322611</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1567147989.099888</v>
+        <v>1937319585.751369</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08563972785458054</v>
+        <v>0.09639608379090694</v>
       </c>
       <c r="G90" t="n">
-        <v>0.047145639040588</v>
+        <v>0.05609061827104041</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1692168212.151392</v>
+        <v>1799030250.834376</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1671321079285717</v>
+        <v>0.1640369543032583</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05355554305096935</v>
+        <v>0.05984733243938062</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2237600761.394114</v>
+        <v>2382305085.786073</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08793348219125649</v>
+        <v>0.07666524739521452</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04242948961965103</v>
+        <v>0.0309970020979806</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4360154304.475303</v>
+        <v>3882357284.122499</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1274399408533066</v>
+        <v>0.104804258188037</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04249807909341653</v>
+        <v>0.04610486566697684</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>60</v>
+      </c>
+      <c r="J93" t="n">
+        <v>134</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2428969428.579295</v>
+        <v>2021391507.487437</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1114515697068948</v>
+        <v>0.1083027981825696</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02961616083503152</v>
+        <v>0.0287008664957962</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2407300259.519062</v>
+        <v>2321267729.859096</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1201234972326637</v>
+        <v>0.1313768324748187</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04217106128898272</v>
+        <v>0.04233485849910747</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2352716833.272898</v>
+        <v>2184872028.93299</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1291504402010067</v>
+        <v>0.1002176833053745</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04600753412192433</v>
+        <v>0.04575646847301391</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4976292363.516089</v>
+        <v>3518184836.275594</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1578807573227813</v>
+        <v>0.1498670718742947</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0195540974735737</v>
+        <v>0.0184458916034936</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>64</v>
+      </c>
+      <c r="J97" t="n">
+        <v>133</v>
+      </c>
+      <c r="K97" t="n">
+        <v>123.3248607916375</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3160910679.981593</v>
+        <v>2908711999.981773</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1210296862330144</v>
+        <v>0.1268946421500058</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03060464385172897</v>
+        <v>0.02790156337507449</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>32</v>
+      </c>
+      <c r="J98" t="n">
+        <v>132</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2982916752.77329</v>
+        <v>2084833947.331722</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1016979805423059</v>
+        <v>0.0990011972521016</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03068915052883592</v>
+        <v>0.02460193572906072</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3968314781.313791</v>
+        <v>4515697534.09604</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1534100257680526</v>
+        <v>0.1169776177675116</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0174686290574081</v>
+        <v>0.02603806419915096</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>55</v>
+      </c>
+      <c r="J100" t="n">
+        <v>133</v>
+      </c>
+      <c r="K100" t="n">
+        <v>133.7309423761383</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2817785775.025211</v>
+        <v>3350965031.293021</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1541999932939196</v>
+        <v>0.1958824113952508</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05356234554470674</v>
+        <v>0.03713426170720881</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>131</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
